--- a/data/trans_bre/P16A01-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.616997364339995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.267550950351696</v>
+        <v>2.267550950351697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3564444400396581</v>
@@ -649,7 +649,7 @@
         <v>0.2134979628290663</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3028485107152499</v>
+        <v>0.30284851071525</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.35657406972614</v>
+        <v>-6.505706036180594</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.599069384581187</v>
+        <v>-3.386288066380008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5044742405516119</v>
+        <v>-0.8727638993562133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.446875194891908</v>
+        <v>-1.292377064827162</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5671888287232268</v>
+        <v>-0.5786029828588745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3066292211056547</v>
+        <v>-0.2903865652794485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06273916497037957</v>
+        <v>-0.09739079037123292</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1705244985607461</v>
+        <v>-0.1550374305702277</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.68389603115803</v>
+        <v>-0.3979732284889195</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.764363861242642</v>
+        <v>2.014810108265702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.991153265093984</v>
+        <v>3.97196945551589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.565724701444112</v>
+        <v>5.655483147360278</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.09634073864586253</v>
+        <v>-0.04328969066532858</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1946704535808403</v>
+        <v>0.2254996225364485</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5932852779860293</v>
+        <v>0.6329938645234497</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9852186194467778</v>
+        <v>1.02069413809024</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.1650311304571439</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.377712821574785</v>
+        <v>1.377712821574786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02020619935321773</v>
@@ -749,7 +749,7 @@
         <v>0.02343384612460019</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2291731965457231</v>
+        <v>0.2291731965457232</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.129419316334117</v>
+        <v>-1.999954659304037</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.775266481435811</v>
+        <v>-5.541216989981931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.313549078989586</v>
+        <v>-2.345425304061945</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.8098595223740744</v>
+        <v>-0.8593152926794156</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.261819953703186</v>
+        <v>-0.2504363909886967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4870114322934507</v>
+        <v>-0.4825515469557148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2696382530745309</v>
+        <v>-0.2725868643946598</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1149757427919725</v>
+        <v>-0.1167858325361411</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.452786267605978</v>
+        <v>2.311640359019461</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.7200389606663691</v>
+        <v>-0.1482755052485679</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.507396087484586</v>
+        <v>2.381934967781669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.543805695165581</v>
+        <v>3.449757294265577</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4224672842195489</v>
+        <v>0.3841661299069527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.06896501370306307</v>
+        <v>-0.01529244648457588</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4346540923927208</v>
+        <v>0.4305375192096471</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7407548481861151</v>
+        <v>0.7189584451772441</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.040396075527359</v>
+        <v>-2.954715601837155</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.320925423283004</v>
+        <v>-2.141595947148889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.968469002520059</v>
+        <v>-3.947784584452099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.353461511302945</v>
+        <v>-2.261383037951967</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4338579050294332</v>
+        <v>-0.427661787342189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2572259155323476</v>
+        <v>-0.2374688973502261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3689851567994353</v>
+        <v>-0.3722775945190981</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2876727002352</v>
+        <v>-0.2689811953833956</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.087871111387981</v>
+        <v>1.114690499651866</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.275067950053943</v>
+        <v>3.21686222586821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.418518640593141</v>
+        <v>1.661259010213842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.32745579184386</v>
+        <v>2.234375963425992</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2182339976997711</v>
+        <v>0.2526108829636594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.515895516091056</v>
+        <v>0.5247478799276363</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1808817242638609</v>
+        <v>0.2125153119431601</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.417783818527458</v>
+        <v>0.4127291664050975</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.600180501983721</v>
+        <v>-1.953372772086893</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.547863116102674</v>
+        <v>-5.585890072906001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.771253024017382</v>
+        <v>-1.303770838967505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.33012527461361</v>
+        <v>-4.068234959026801</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2064183110839383</v>
+        <v>-0.2446204150920435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4544334277400767</v>
+        <v>-0.4810478892687866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1174393029280778</v>
+        <v>-0.1664896414435435</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3917139892519018</v>
+        <v>-0.3781013620159887</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.934934622589691</v>
+        <v>5.808386515643566</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.017193837903997</v>
+        <v>2.176030079009846</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.21752423123447</v>
+        <v>6.087526443705292</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.090981428766248</v>
+        <v>1.434754654003227</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.10087251759447</v>
+        <v>1.102508713540143</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2880068751372118</v>
+        <v>0.3030801276705897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.344559742571497</v>
+        <v>1.314959054938628</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1542644190425289</v>
+        <v>0.2017811342246562</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.945913327630841</v>
+        <v>-2.026857220364692</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.726865079335661</v>
+        <v>-2.699023553314838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7330911581785443</v>
+        <v>-0.7138305321783438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.846895876588741</v>
+        <v>-0.8711898748111689</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2566247439465049</v>
+        <v>-0.264545193976973</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2565351470728802</v>
+        <v>-0.263231425448686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08801360085326011</v>
+        <v>-0.08605978295974502</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1076708805463261</v>
+        <v>-0.1057897702096639</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4839910004841305</v>
+        <v>0.4555231262161534</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3137166659256988</v>
+        <v>0.18015926764706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.046710119459607</v>
+        <v>1.913286095302668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.741421052927193</v>
+        <v>1.739282952012021</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.074137627504927</v>
+        <v>0.07030963362380131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03839554451398123</v>
+        <v>0.02121798791829566</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2915237376727021</v>
+        <v>0.2743914294250894</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2696683930288224</v>
+        <v>0.2723162712190532</v>
       </c>
     </row>
     <row r="19">
